--- a/MODERN MECHANICS/Lab_2_sheet.xlsx
+++ b/MODERN MECHANICS/Lab_2_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\周嘉禾\OneDrive\桌面\FCU\MODERN MECHANICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\MODERN MECHANICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97B6D57-524F-49AA-B95E-366CA667F70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC01690A-6EE3-4096-B9AE-ADCAA904BF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{407C9874-5FF6-4232-8657-29F60F13FDB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{407C9874-5FF6-4232-8657-29F60F13FDB3}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -122,10 +121,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.000%"/>
-    <numFmt numFmtId="184" formatCode="0.0"/>
-    <numFmt numFmtId="185" formatCode="0.000"/>
-    <numFmt numFmtId="190" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -180,42 +179,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -533,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EB76BA-FD2D-46BC-A192-F4B048F5DB73}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -545,11 +541,11 @@
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
@@ -561,7 +557,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,309 +583,279 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>33</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>8</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <f>B3+C3/10</f>
         <v>33.799999999999997</v>
       </c>
-      <c r="E3" s="6">
-        <f>D3+D$1</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E12" si="0">D3+D$1</f>
         <v>33.799999999999997</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <f>AVERAGE(E3:E12)</f>
         <v>33.684999999999995</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="2">
         <f>E3-F$3</f>
         <v>0.11500000000000199</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="5">
         <f>STDEV(G3:G12)</f>
         <v>0.14151953143569176</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>33</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>7</v>
       </c>
-      <c r="D4" s="6">
-        <f t="shared" ref="D4:D12" si="0">B4+C4/10</f>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D12" si="1">B4+C4/10</f>
         <v>33.700000000000003</v>
       </c>
-      <c r="E4" s="6">
-        <f>D4+D$1</f>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
         <v>33.700000000000003</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="6">
-        <f t="shared" ref="G4:G12" si="1">E4-F$3</f>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G12" si="2">E4-F$3</f>
         <v>1.5000000000007674E-2</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>33</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>6.5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>33.65</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>33.65</v>
       </c>
-      <c r="E5" s="6">
-        <f>D5+D$1</f>
-        <v>33.65</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6">
-        <f t="shared" si="1"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
         <v>-3.4999999999996589E-2</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>33</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>7</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>33.700000000000003</v>
       </c>
-      <c r="E6" s="6">
-        <f>D6+D$1</f>
-        <v>33.700000000000003</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
         <v>1.5000000000007674E-2</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>33</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>33.6</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-      <c r="E7" s="6">
-        <f>D7+D$1</f>
-        <v>33.6</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
         <v>-8.4999999999993747E-2</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>33</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>5.5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>33.549999999999997</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>33.549999999999997</v>
       </c>
-      <c r="E8" s="6">
-        <f>D8+D$1</f>
-        <v>33.549999999999997</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
         <v>-0.13499999999999801</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>33</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>6.5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>33.65</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>33.65</v>
       </c>
-      <c r="E9" s="6">
-        <f>D9+D$1</f>
-        <v>33.65</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="6">
-        <f t="shared" si="1"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
         <v>-3.4999999999996589E-2</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>33</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>8</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>33.799999999999997</v>
       </c>
-      <c r="E10" s="6">
-        <f>D10+D$1</f>
-        <v>33.799999999999997</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
         <v>0.11500000000000199</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>33</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>9.5</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>33.950000000000003</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>33.950000000000003</v>
       </c>
-      <c r="E11" s="6">
-        <f>D11+D$1</f>
-        <v>33.950000000000003</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
         <v>0.26500000000000767</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>33</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>4.5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>33.450000000000003</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>33.450000000000003</v>
       </c>
-      <c r="E12" s="6">
-        <f>D12+D$1</f>
-        <v>33.450000000000003</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
         <v>-0.23499999999999233</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <f>H3/SQRT(10)</f>
         <v>4.4752405273658473E-2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5">
+      <c r="D13" s="8"/>
+      <c r="E13" s="6">
         <f>B13/F3</f>
         <v>1.3285558935329815E-3</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="10">
@@ -898,21 +864,21 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
@@ -953,18 +919,18 @@
       <c r="B18">
         <v>25</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>9</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="2">
         <f>B18+C18/10</f>
         <v>25.9</v>
       </c>
-      <c r="E18" s="6">
-        <f>D18+D$16</f>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18:E27" si="3">D18+D$16</f>
         <v>25.9</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="7">
         <f>AVERAGE(E18:E27)</f>
         <v>25.810000000000002</v>
       </c>
@@ -972,7 +938,7 @@
         <f>E18-F$18</f>
         <v>8.9999999999996305E-2</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="5">
         <f>STDEV(G18:G27)</f>
         <v>0.15776212754932276</v>
       </c>
@@ -984,23 +950,23 @@
       <c r="B19">
         <v>25</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <v>5.5</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19:D27" si="2">B19+C19/10</f>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:D27" si="4">B19+C19/10</f>
         <v>25.55</v>
       </c>
-      <c r="E19" s="6">
-        <f>D19+D$16</f>
+      <c r="E19" s="2">
+        <f t="shared" si="3"/>
         <v>25.55</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="7"/>
       <c r="G19">
-        <f t="shared" ref="G19:G27" si="3">E19-F$18</f>
+        <f t="shared" ref="G19:G27" si="5">E19-F$18</f>
         <v>-0.26000000000000156</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -1009,23 +975,23 @@
       <c r="B20">
         <v>25</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>8.5</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" si="2"/>
+      <c r="D20" s="2">
+        <f t="shared" si="4"/>
         <v>25.85</v>
       </c>
-      <c r="E20" s="6">
-        <f>D20+D$16</f>
+      <c r="E20" s="2">
+        <f t="shared" si="3"/>
         <v>25.85</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="7"/>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999999147E-2</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -1034,23 +1000,23 @@
       <c r="B21">
         <v>25</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <v>9</v>
       </c>
-      <c r="D21" s="6">
-        <f t="shared" si="2"/>
+      <c r="D21" s="2">
+        <f t="shared" si="4"/>
         <v>25.9</v>
       </c>
-      <c r="E21" s="6">
-        <f>D21+D$16</f>
+      <c r="E21" s="2">
+        <f t="shared" si="3"/>
         <v>25.9</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="7"/>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.9999999999996305E-2</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -1059,23 +1025,23 @@
       <c r="B22">
         <v>26</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="6">
-        <f t="shared" si="2"/>
+      <c r="D22" s="2">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E22" s="6">
-        <f>D22+D$16</f>
+      <c r="E22" s="2">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="7"/>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.18999999999999773</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -1084,23 +1050,23 @@
       <c r="B23">
         <v>25</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <v>9.5</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" si="2"/>
+      <c r="D23" s="2">
+        <f t="shared" si="4"/>
         <v>25.95</v>
       </c>
-      <c r="E23" s="6">
-        <f>D23+D$16</f>
+      <c r="E23" s="2">
+        <f t="shared" si="3"/>
         <v>25.95</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="7"/>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13999999999999702</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -1109,23 +1075,23 @@
       <c r="B24">
         <v>25</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="3">
         <v>7</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" si="2"/>
+      <c r="D24" s="2">
+        <f t="shared" si="4"/>
         <v>25.7</v>
       </c>
-      <c r="E24" s="6">
-        <f>D24+D$16</f>
+      <c r="E24" s="2">
+        <f t="shared" si="3"/>
         <v>25.7</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="7"/>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.11000000000000298</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -1134,23 +1100,23 @@
       <c r="B25">
         <v>25</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="3">
         <v>5.5</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" si="2"/>
+      <c r="D25" s="2">
+        <f t="shared" si="4"/>
         <v>25.55</v>
       </c>
-      <c r="E25" s="6">
-        <f>D25+D$16</f>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
         <v>25.55</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="7"/>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.26000000000000156</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -1159,23 +1125,23 @@
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="3">
         <v>8.5</v>
       </c>
-      <c r="D26" s="6">
-        <f t="shared" si="2"/>
+      <c r="D26" s="2">
+        <f t="shared" si="4"/>
         <v>25.85</v>
       </c>
-      <c r="E26" s="6">
-        <f>D26+D$16</f>
+      <c r="E26" s="2">
+        <f t="shared" si="3"/>
         <v>25.85</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="7"/>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999999147E-2</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -1184,41 +1150,41 @@
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="3">
         <v>8.5</v>
       </c>
-      <c r="D27" s="6">
-        <f t="shared" si="2"/>
+      <c r="D27" s="2">
+        <f t="shared" si="4"/>
         <v>25.85</v>
       </c>
-      <c r="E27" s="6">
-        <f>D27+D$16</f>
+      <c r="E27" s="2">
+        <f t="shared" si="3"/>
         <v>25.85</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="7"/>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999999147E-2</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="9">
         <f>H18/SQRT(10)</f>
         <v>4.9888765156985773E-2</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5">
+      <c r="D28" s="8"/>
+      <c r="E28" s="6">
         <f>B28/F18</f>
         <v>1.9329238728006885E-3</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="10">
@@ -1228,20 +1194,20 @@
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1282,26 +1248,26 @@
       <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="3">
         <v>0.5</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="2">
         <f>B33+C33/10</f>
         <v>32.049999999999997</v>
       </c>
-      <c r="E33" s="6">
-        <f>D33+D$16</f>
+      <c r="E33" s="2">
+        <f t="shared" ref="E33:E42" si="6">D33+D$16</f>
         <v>32.049999999999997</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="5">
         <f>AVERAGE(E33:E42)</f>
         <v>34.674999999999997</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="4">
         <f>E33-F$33</f>
         <v>-2.625</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="5">
         <f>STDEV(G33:G42)</f>
         <v>1.1138646436818282</v>
       </c>
@@ -1313,23 +1279,23 @@
       <c r="B34">
         <v>35</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="3">
         <v>5</v>
       </c>
-      <c r="D34" s="6">
-        <f t="shared" ref="D34:D42" si="4">B34+C34/10</f>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34:D42" si="7">B34+C34/10</f>
         <v>35.5</v>
       </c>
-      <c r="E34" s="6">
-        <f>D34+D$16</f>
+      <c r="E34" s="2">
+        <f t="shared" si="6"/>
         <v>35.5</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="11">
-        <f t="shared" ref="G34:G42" si="5">E34-F$33</f>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4">
+        <f t="shared" ref="G34:G42" si="8">E34-F$33</f>
         <v>0.82500000000000284</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
@@ -1338,23 +1304,23 @@
       <c r="B35">
         <v>33</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="3">
         <v>3.5</v>
       </c>
-      <c r="D35" s="6">
-        <f t="shared" si="4"/>
+      <c r="D35" s="2">
+        <f t="shared" si="7"/>
         <v>33.35</v>
       </c>
-      <c r="E35" s="6">
-        <f>D35+D$16</f>
+      <c r="E35" s="2">
+        <f t="shared" si="6"/>
         <v>33.35</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="11">
-        <f t="shared" si="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4">
+        <f t="shared" si="8"/>
         <v>-1.3249999999999957</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
@@ -1363,23 +1329,23 @@
       <c r="B36">
         <v>35</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="3">
         <v>1.5</v>
       </c>
-      <c r="D36" s="6">
-        <f t="shared" si="4"/>
+      <c r="D36" s="2">
+        <f t="shared" si="7"/>
         <v>35.15</v>
       </c>
-      <c r="E36" s="6">
-        <f>D36+D$16</f>
+      <c r="E36" s="2">
+        <f t="shared" si="6"/>
         <v>35.15</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="11">
-        <f t="shared" si="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4">
+        <f t="shared" si="8"/>
         <v>0.47500000000000142</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -1388,23 +1354,23 @@
       <c r="B37">
         <v>34</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="3">
         <v>7</v>
       </c>
-      <c r="D37" s="6">
-        <f t="shared" si="4"/>
+      <c r="D37" s="2">
+        <f t="shared" si="7"/>
         <v>34.700000000000003</v>
       </c>
-      <c r="E37" s="6">
-        <f>D37+D$16</f>
+      <c r="E37" s="2">
+        <f t="shared" si="6"/>
         <v>34.700000000000003</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="11">
-        <f t="shared" si="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="4">
+        <f t="shared" si="8"/>
         <v>2.5000000000005684E-2</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
@@ -1413,23 +1379,23 @@
       <c r="B38">
         <v>35</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="3">
         <v>1</v>
       </c>
-      <c r="D38" s="6">
-        <f t="shared" si="4"/>
+      <c r="D38" s="2">
+        <f t="shared" si="7"/>
         <v>35.1</v>
       </c>
-      <c r="E38" s="6">
-        <f>D38+D$16</f>
+      <c r="E38" s="2">
+        <f t="shared" si="6"/>
         <v>35.1</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="11">
-        <f t="shared" si="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="4">
+        <f t="shared" si="8"/>
         <v>0.42500000000000426</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
@@ -1438,23 +1404,23 @@
       <c r="B39">
         <v>34</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="3">
         <v>8.5</v>
       </c>
-      <c r="D39" s="6">
-        <f t="shared" si="4"/>
+      <c r="D39" s="2">
+        <f t="shared" si="7"/>
         <v>34.85</v>
       </c>
-      <c r="E39" s="6">
-        <f>D39+D$16</f>
+      <c r="E39" s="2">
+        <f t="shared" si="6"/>
         <v>34.85</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="11">
-        <f t="shared" si="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="4">
+        <f t="shared" si="8"/>
         <v>0.17500000000000426</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -1463,23 +1429,23 @@
       <c r="B40">
         <v>35</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="3">
         <v>4</v>
       </c>
-      <c r="D40" s="6">
-        <f t="shared" si="4"/>
+      <c r="D40" s="2">
+        <f t="shared" si="7"/>
         <v>35.4</v>
       </c>
-      <c r="E40" s="6">
-        <f>D40+D$16</f>
+      <c r="E40" s="2">
+        <f t="shared" si="6"/>
         <v>35.4</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="11">
-        <f t="shared" si="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="4">
+        <f t="shared" si="8"/>
         <v>0.72500000000000142</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -1488,23 +1454,23 @@
       <c r="B41">
         <v>35</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="3">
         <v>2</v>
       </c>
-      <c r="D41" s="6">
-        <f t="shared" si="4"/>
+      <c r="D41" s="2">
+        <f t="shared" si="7"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="E41" s="6">
-        <f>D41+D$16</f>
+      <c r="E41" s="2">
+        <f t="shared" si="6"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="11">
-        <f t="shared" si="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4">
+        <f t="shared" si="8"/>
         <v>0.52500000000000568</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -1513,41 +1479,41 @@
       <c r="B42">
         <v>35</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="3">
         <v>4.5</v>
       </c>
-      <c r="D42" s="6">
-        <f t="shared" si="4"/>
+      <c r="D42" s="2">
+        <f t="shared" si="7"/>
         <v>35.450000000000003</v>
       </c>
-      <c r="E42" s="6">
-        <f>D42+D$16</f>
+      <c r="E42" s="2">
+        <f t="shared" si="6"/>
         <v>35.450000000000003</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="11">
-        <f t="shared" si="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="4">
+        <f t="shared" si="8"/>
         <v>0.77500000000000568</v>
       </c>
-      <c r="H42" s="9"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="9">
         <f>H33/SQRT(10)</f>
         <v>0.35223492791664573</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5">
+      <c r="D43" s="8"/>
+      <c r="E43" s="6">
         <f>B43/F33</f>
         <v>1.0158181050227708E-2</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="10">
@@ -1557,64 +1523,88 @@
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="2"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="9">
-        <f>(PI()/4)*G28^2*G43</f>
-        <v>18149.915879019176</v>
-      </c>
-      <c r="D46" s="9"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="5">
+        <f>(PI()/4)*F18^2*F33</f>
+        <v>18141.882933980542</v>
+      </c>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="5">
+      <c r="B47" s="7"/>
+      <c r="C47" s="6">
         <f>SQRT(4*E28^2+E43^2)</f>
         <v>1.0868919957446396E-2</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="9">
+      <c r="B49" s="7"/>
+      <c r="C49" s="5">
         <f>C46*C47</f>
-        <v>197.26998292344476</v>
-      </c>
-      <c r="D49" s="9"/>
+        <v>197.18267348679728</v>
+      </c>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="F18:F27"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="F33:F42"/>
+    <mergeCell ref="H33:H42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:H44"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C47:D48"/>
@@ -1626,30 +1616,6 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A47:B48"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="F33:F42"/>
-    <mergeCell ref="H33:H42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:H44"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="F18:F27"/>
-    <mergeCell ref="H18:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
